--- a/output/fit_clients/fit_round_499.xlsx
+++ b/output/fit_clients/fit_round_499.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1524835120.172134</v>
+        <v>2204938134.760051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08409200594889656</v>
+        <v>0.09511237505561812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03852087024456426</v>
+        <v>0.03089263354258386</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762417491.8594053</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2368285907.49329</v>
+        <v>1773170103.545715</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1716646780793803</v>
+        <v>0.1592630984546692</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03519070404953914</v>
+        <v>0.03848879862349831</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1184143050.871392</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4246954684.962686</v>
+        <v>3613773880.661654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1266048957545459</v>
+        <v>0.1430666335390542</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03737192924971112</v>
+        <v>0.03480180705382176</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>180</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2123477374.17931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2583993113.749345</v>
+        <v>3041294346.033156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08663934980987859</v>
+        <v>0.09497968274719089</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03952376565799976</v>
+        <v>0.03851376255101676</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1291996654.295089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2573690105.059485</v>
+        <v>1959443681.727127</v>
       </c>
       <c r="F6" t="n">
-        <v>0.143175209757305</v>
+        <v>0.1079020884512056</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05238857279704968</v>
+        <v>0.04641722783767956</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1286845020.060377</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2758387980.606618</v>
+        <v>2135413012.629606</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06296308636302632</v>
+        <v>0.1004353021040698</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03306589100830509</v>
+        <v>0.03369806703478144</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>157</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1379193978.461847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2606476173.99853</v>
+        <v>2626412233.886818</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1937953270080271</v>
+        <v>0.1386937504946263</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03182963655386454</v>
+        <v>0.02821047486114571</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>160</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1303238104.308202</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2297847690.28067</v>
+        <v>1675030865.791624</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1258076904768367</v>
+        <v>0.1692439192008824</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02464351714955744</v>
+        <v>0.02543405759169345</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1148923830.456114</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5237167151.404015</v>
+        <v>4320832936.329385</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2032187865122745</v>
+        <v>0.1366303804284495</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04975157149441874</v>
+        <v>0.04164778766994449</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>210</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2618583693.377887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2891797671.581777</v>
+        <v>2800962503.760082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1201981186621512</v>
+        <v>0.1567433202686698</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04368402219380638</v>
+        <v>0.04804991587944888</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>206</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1445898771.199225</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3193235667.304761</v>
+        <v>2338683845.379757</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1903144558649459</v>
+        <v>0.1218531669637523</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05402423069203686</v>
+        <v>0.04088248613814966</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>169</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1596617869.386047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5108476250.700689</v>
+        <v>5213208608.070333</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09516172370050426</v>
+        <v>0.08832417679536309</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02274712000815012</v>
+        <v>0.02659185977791101</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>168</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2554238124.002934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3856015667.563614</v>
+        <v>3441372081.80333</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1510319493956218</v>
+        <v>0.1368154289282813</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0376464608054601</v>
+        <v>0.0442417875169908</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>161</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1928007806.254955</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1459472565.6082</v>
+        <v>1412766360.93785</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07307853248169636</v>
+        <v>0.1048916789517477</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03030263156842098</v>
+        <v>0.03260718032036928</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>729736359.1404979</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2214806224.644576</v>
+        <v>1823220171.737565</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1148055113171539</v>
+        <v>0.08696250040680147</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05081172151881772</v>
+        <v>0.03952085284073281</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1107403168.634047</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3919152405.091915</v>
+        <v>4289017728.787787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1286971721907251</v>
+        <v>0.1108350845547924</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0342588353759146</v>
+        <v>0.04722482543218843</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>149</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1959576241.172612</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2853776175.547046</v>
+        <v>3398645268.695639</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1174430742554717</v>
+        <v>0.1613208225615402</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03160779517495271</v>
+        <v>0.02720103001105932</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>165</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1426888128.647192</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>856031661.4333586</v>
+        <v>984648068.3427738</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1633286991445305</v>
+        <v>0.1794546698768514</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01780526002014092</v>
+        <v>0.02440349892998097</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>428015824.9733664</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2613846977.739584</v>
+        <v>1697801424.887019</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1601451418689392</v>
+        <v>0.1590243872377544</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03109043437696126</v>
+        <v>0.02091607871816326</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>70</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1306923449.840527</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2401021276.995405</v>
+        <v>2407200070.756669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08023773409383167</v>
+        <v>0.09256126696342963</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03690631996035028</v>
+        <v>0.03561169626307526</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1200510636.124239</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3915518879.831648</v>
+        <v>2561952431.021958</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1449029112783596</v>
+        <v>0.09182665060581922</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04382057246101467</v>
+        <v>0.04530058703928062</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>137</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1957759446.645782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1026015359.385644</v>
+        <v>1487985151.386394</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1225023794122872</v>
+        <v>0.1212738632837616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04903796413049968</v>
+        <v>0.0469894975759269</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>513007745.5074714</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2823534960.669633</v>
+        <v>3898589667.458472</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1339905661757432</v>
+        <v>0.1105422412407607</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02378700446044497</v>
+        <v>0.02836399212107544</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>147</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1411767527.453959</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1466317886.862015</v>
+        <v>1201858667.612519</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1184015626182822</v>
+        <v>0.1074764324813822</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02882468611107674</v>
+        <v>0.02378459746212874</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>733158900.1529522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1249890132.002993</v>
+        <v>1106866584.652714</v>
       </c>
       <c r="F26" t="n">
-        <v>0.103166907612315</v>
+        <v>0.09513612065414923</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02475993298700217</v>
+        <v>0.02607599904190656</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>624945099.274839</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4398251356.385372</v>
+        <v>4095684028.577108</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09842237897535171</v>
+        <v>0.1380805522989648</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02126945811879573</v>
+        <v>0.02016888095328292</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2199125668.575399</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2877288052.807414</v>
+        <v>3808128954.657251</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09844304870386168</v>
+        <v>0.1014552333674474</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04887619167074259</v>
+        <v>0.03375491620307599</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>164</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1438644026.988618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5244516468.613218</v>
+        <v>3588394340.217472</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1183007343813219</v>
+        <v>0.1364368183333156</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04072349060170531</v>
+        <v>0.03016196222993522</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>221</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2622258164.931401</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2354316244.214282</v>
+        <v>2379718517.84469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1174334476751374</v>
+        <v>0.1104769822661511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03739121923234257</v>
+        <v>0.0307257404747619</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1177158199.945423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>982133780.4428147</v>
+        <v>1324521124.05672</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07411327721835623</v>
+        <v>0.07539265567247323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03484608208876507</v>
+        <v>0.05238849584031319</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>491066892.9813162</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1179305774.015708</v>
+        <v>1747352183.815135</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1198341379389973</v>
+        <v>0.07998823361958007</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02724754027549014</v>
+        <v>0.0310722119997323</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>589652888.9601667</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2656994735.742096</v>
+        <v>3079889119.172915</v>
       </c>
       <c r="F33" t="n">
-        <v>0.19458076706782</v>
+        <v>0.2011527366631385</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05191319000945753</v>
+        <v>0.05922400065282581</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>153</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1328497392.718441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1196714711.019434</v>
+        <v>1555849851.958184</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09795972907433283</v>
+        <v>0.0748096700408791</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02541765050251524</v>
+        <v>0.02656758347794106</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>598357361.1080018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1347394242.565169</v>
+        <v>954257912.7922953</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09905797890783462</v>
+        <v>0.07124914145888531</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02810332511338873</v>
+        <v>0.0332451454623103</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>673697063.7056057</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2040864101.374198</v>
+        <v>2978884841.950587</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1423460478194637</v>
+        <v>0.1740289459396994</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0175403429453181</v>
+        <v>0.02728311190340983</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>128</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1020432109.47295</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2009109868.407541</v>
+        <v>2790038593.866125</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08712358698316756</v>
+        <v>0.07040018376410663</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03356129752931795</v>
+        <v>0.03533801068709258</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>136</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1004554962.79685</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1671216126.761125</v>
+        <v>1477069246.763742</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08118306307437373</v>
+        <v>0.07645304947836208</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02510201580917306</v>
+        <v>0.02606412376269309</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>835608088.4831249</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1506794820.16421</v>
+        <v>2099372206.335522</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1942793612867695</v>
+        <v>0.157599782608271</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02073243547276724</v>
+        <v>0.02334464156325134</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>753397479.515853</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1368718403.73003</v>
+        <v>1675515975.738071</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1300387509097774</v>
+        <v>0.1080195741746489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0411918184633956</v>
+        <v>0.05233118381507125</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>684359200.9558134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2213321073.520255</v>
+        <v>2360295461.285022</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1321466409977798</v>
+        <v>0.1596326651035416</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04299472559898223</v>
+        <v>0.0355047969979419</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1106660590.172527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3005993379.469236</v>
+        <v>3349831115.598078</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1212266233419523</v>
+        <v>0.09461696978345976</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03031030913601154</v>
+        <v>0.03563058863782448</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1502996650.599434</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1949895395.842161</v>
+        <v>2070503159.85121</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1271664591679246</v>
+        <v>0.1631255759215366</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01751973291190866</v>
+        <v>0.02421509267003443</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>173</v>
-      </c>
-      <c r="J43" t="n">
-        <v>974947801.9166739</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1591250296.56587</v>
+        <v>2192117168.361801</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07195843579836786</v>
+        <v>0.07757614162458949</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03136367649437297</v>
+        <v>0.0303135310286354</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>795625173.0801133</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1860459139.556853</v>
+        <v>1985910149.504269</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1414225028972898</v>
+        <v>0.1846333934099226</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04028089820294189</v>
+        <v>0.03550277396284988</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>930229546.591222</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5500446850.266747</v>
+        <v>4023269649.81947</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1258556509876115</v>
+        <v>0.1718982823496543</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0510763819217319</v>
+        <v>0.05203326910110465</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>178</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2750223480.591893</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4910624461.918777</v>
+        <v>4945141158.268337</v>
       </c>
       <c r="F47" t="n">
-        <v>0.188246775902308</v>
+        <v>0.1738168064496402</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03712933843599612</v>
+        <v>0.05294582317465089</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>138</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2455312281.707892</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4644567549.440719</v>
+        <v>4559019101.92725</v>
       </c>
       <c r="F48" t="n">
-        <v>0.104205836916022</v>
+        <v>0.08119476835986501</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03455304617888222</v>
+        <v>0.03056226459252501</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>164</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2322283771.651137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1596686576.372791</v>
+        <v>1272381032.191032</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1467722132485419</v>
+        <v>0.163635400659666</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04030890666564486</v>
+        <v>0.04256985031975821</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>798343305.2127101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3682270928.851202</v>
+        <v>3687527100.588357</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1469236662118549</v>
+        <v>0.135642088025399</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0488257919521275</v>
+        <v>0.04508743954405586</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>171</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1841135475.733761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1536748815.48614</v>
+        <v>1413921648.86678</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1480030406439636</v>
+        <v>0.1378857056199744</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04187447509686225</v>
+        <v>0.05128565538799513</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>768374404.7321951</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4717914483.740541</v>
+        <v>4588321074.216998</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09028247356621855</v>
+        <v>0.09552138135183905</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05432862553149306</v>
+        <v>0.05667873135790897</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>206</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2358957256.127723</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3227990859.574645</v>
+        <v>3558657880.518332</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1397111890281811</v>
+        <v>0.1507214119189708</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02440648174279326</v>
+        <v>0.02466306912336492</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1613995446.53124</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3103578220.720401</v>
+        <v>4021963805.969461</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1315676075847754</v>
+        <v>0.121341369697374</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04110718312185521</v>
+        <v>0.03824871559159784</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>162</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1551789104.070842</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4992201551.319468</v>
+        <v>3844531418.49016</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2054946526693306</v>
+        <v>0.148886043828673</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02760355406973101</v>
+        <v>0.03056442267562628</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2496100794.356708</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1616035471.299909</v>
+        <v>1253180134.006598</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1582449244926906</v>
+        <v>0.1236970467554831</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04904635705412761</v>
+        <v>0.03728899414112367</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>808017760.7357544</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3120577712.012094</v>
+        <v>3264554839.652818</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1836882587559313</v>
+        <v>0.1406513999258102</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02162513328701635</v>
+        <v>0.02000762691583835</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>159</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1560288870.560616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1320754186.732331</v>
+        <v>1844445231.834192</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1487372568002947</v>
+        <v>0.1967756220968279</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03706499664770672</v>
+        <v>0.02822861004467258</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>660377140.8753982</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5127959183.933325</v>
+        <v>4085638403.464764</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0794403939248064</v>
+        <v>0.1262238296601144</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03401374998647193</v>
+        <v>0.04301867286809195</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2563979513.529882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2399843025.179515</v>
+        <v>3424887080.2</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1502187186945912</v>
+        <v>0.1553348143440536</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02981225875518619</v>
+        <v>0.02629850127484851</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1199921520.012767</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3300389302.041453</v>
+        <v>2254379997.925006</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1182510793414522</v>
+        <v>0.1351470272080017</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02519290281280092</v>
+        <v>0.02383222454207178</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>172</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1650194603.183573</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1689026090.088474</v>
+        <v>1450263585.468286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1594477461762736</v>
+        <v>0.1713592369804156</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04223231467164676</v>
+        <v>0.03489488311897573</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>844513056.5024216</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5292128393.689196</v>
+        <v>3993982327.734924</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08393332328675564</v>
+        <v>0.06973940630398801</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03646640654328637</v>
+        <v>0.03246191206874626</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>146</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2646064201.599029</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4621037517.740389</v>
+        <v>3840032364.040711</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1831588851519096</v>
+        <v>0.1593571170747025</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02376182215677305</v>
+        <v>0.02813632161326379</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>155</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2310518838.439971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3883765165.746927</v>
+        <v>6024272823.12295</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1213970209627706</v>
+        <v>0.157716044269612</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02125383698852532</v>
+        <v>0.02970574974222263</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>179</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1941882608.424113</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4413662112.249243</v>
+        <v>4341688497.278156</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1560817202346282</v>
+        <v>0.1520204033010905</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03782568354910112</v>
+        <v>0.03303268160999277</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2206831051.894986</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2502376965.864298</v>
+        <v>3270624854.12549</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08835244880014689</v>
+        <v>0.1001936175475483</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04004411823811418</v>
+        <v>0.04356809487697797</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>160</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1251188543.321841</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6026806513.902506</v>
+        <v>4240418096.900546</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09866162119989155</v>
+        <v>0.144224646294612</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04301719560224782</v>
+        <v>0.03227135680411714</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>159</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3013403375.604845</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1909229961.627996</v>
+        <v>1791671692.104854</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1358399382812956</v>
+        <v>0.1532540001560811</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04926432959268462</v>
+        <v>0.04463933578818562</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>954614974.0853015</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2375931565.597115</v>
+        <v>3230618044.763553</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08566261858861567</v>
+        <v>0.09781293423074953</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04175444467071611</v>
+        <v>0.04313008756019441</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>144</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1187965719.208178</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5359854677.094854</v>
+        <v>4452462346.696949</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1709627246969232</v>
+        <v>0.1660108153786543</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03128843042967815</v>
+        <v>0.02480093002920997</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>182</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2679927471.145851</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1898938471.457811</v>
+        <v>1545928527.923518</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1011686576130883</v>
+        <v>0.1082420424169762</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05214733568687593</v>
+        <v>0.0382759507808698</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>949469198.3928479</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2220439085.422206</v>
+        <v>3503699770.660558</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07154227046645949</v>
+        <v>0.09108625070461969</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04208533755371711</v>
+        <v>0.04483636767076157</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>188</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1110219610.109218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2570259170.32694</v>
+        <v>3821204632.948639</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1147993538506138</v>
+        <v>0.1726662541151718</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02307614863359802</v>
+        <v>0.02979197204069291</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>170</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1285129687.703712</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2226582763.295038</v>
+        <v>2300638704.315351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1007152998675371</v>
+        <v>0.102709199401632</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03506237266744493</v>
+        <v>0.03798288349739756</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1113291324.678945</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4868968719.753819</v>
+        <v>3704023578.481193</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08611751609663197</v>
+        <v>0.08208881198599834</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02981874051518172</v>
+        <v>0.034072117394288</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2434484381.067697</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1864722223.424647</v>
+        <v>1701401570.094635</v>
       </c>
       <c r="F77" t="n">
-        <v>0.124398295294435</v>
+        <v>0.1387789485050226</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02260672004476168</v>
+        <v>0.02735991941612126</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>932361153.2479615</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4433957335.583181</v>
+        <v>4516315617.391196</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244596133169354</v>
+        <v>0.1021900549801733</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04732748271971005</v>
+        <v>0.04672575331326222</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>174</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2216978602.485139</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1905109318.711522</v>
+        <v>1318791529.55227</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1543008697740125</v>
+        <v>0.1458443109681646</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03989033231253368</v>
+        <v>0.02643204705678379</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>952554764.4593503</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3815178126.0908</v>
+        <v>4135277106.968727</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08196058939062037</v>
+        <v>0.09277891932526722</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03264446353962586</v>
+        <v>0.03317011037525727</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1907589053.342836</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4945351467.25774</v>
+        <v>4222863086.128411</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0986259640207536</v>
+        <v>0.08495683900384926</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02253738459663084</v>
+        <v>0.03127171236187975</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2472675731.958915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4494036485.595966</v>
+        <v>4266803525.058946</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1414353459673709</v>
+        <v>0.1688672877417768</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02896531640438869</v>
+        <v>0.02477644819964189</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>175</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2247018254.988242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1657406471.143869</v>
+        <v>2158732624.729135</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1442568638816872</v>
+        <v>0.1018558624357439</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03397025713718543</v>
+        <v>0.03991447912136593</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>828703178.2948924</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2340904357.190118</v>
+        <v>2589158464.323153</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029022017884065</v>
+        <v>0.1190462443483169</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04073608647454253</v>
+        <v>0.04471697657414753</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1170452133.686963</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3505173318.929463</v>
+        <v>2355412185.763296</v>
       </c>
       <c r="F85" t="n">
-        <v>0.161045831549557</v>
+        <v>0.1841592641153971</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04638703691130442</v>
+        <v>0.03684932011418472</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>187</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1752586775.397691</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2611575011.572041</v>
+        <v>2379128568.151756</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1397509890343859</v>
+        <v>0.1247291311480789</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02382055544870609</v>
+        <v>0.02656054485750076</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1305787618.478517</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1229890520.126258</v>
+        <v>1053824405.365861</v>
       </c>
       <c r="F87" t="n">
-        <v>0.176005251423481</v>
+        <v>0.1612232629808817</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04190115924511512</v>
+        <v>0.04443054569917202</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>614945323.3234874</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3377358881.630771</v>
+        <v>2442421444.50792</v>
       </c>
       <c r="F88" t="n">
-        <v>0.149333265484701</v>
+        <v>0.1200575539582205</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03842555116906338</v>
+        <v>0.04004785109017378</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>198</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1688679508.571483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2187398021.996655</v>
+        <v>2484498611.090002</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1061281847006917</v>
+        <v>0.1147945517263852</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03170686986222915</v>
+        <v>0.03454491304439573</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>170</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1093699108.685772</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1922216712.778137</v>
+        <v>1507912098.845959</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1271881721281011</v>
+        <v>0.09915485361665996</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05499309180937644</v>
+        <v>0.05340900154133799</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>961108412.4038966</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1303979460.716103</v>
+        <v>1446691217.749896</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1318123901448456</v>
+        <v>0.1606393650382993</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03785993284561782</v>
+        <v>0.03864021516449496</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>651989795.4174505</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2573688210.08276</v>
+        <v>2479584373.8391</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09845777838732719</v>
+        <v>0.1078977914114559</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03026892933611642</v>
+        <v>0.03726073451240504</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1286844094.571236</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4854843100.41608</v>
+        <v>3952466455.659791</v>
       </c>
       <c r="F93" t="n">
-        <v>0.110337979662679</v>
+        <v>0.1032109961662936</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04699515396198679</v>
+        <v>0.04210605857822647</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2427421495.553822</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1557958006.952159</v>
+        <v>1986888912.08775</v>
       </c>
       <c r="F94" t="n">
-        <v>0.154525169504525</v>
+        <v>0.1621987023918813</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03063115951370822</v>
+        <v>0.0421479607969335</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>778978944.3751177</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2971171843.357761</v>
+        <v>2869156421.39173</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1097976625019751</v>
+        <v>0.1034797624198757</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03661140906719274</v>
+        <v>0.03203334134741792</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>121</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1485585923.563743</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2179279226.281662</v>
+        <v>2118859519.942348</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1117667183520158</v>
+        <v>0.1097906002071207</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04702294004735957</v>
+        <v>0.03661461076049172</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1089639580.99926</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4462121091.094565</v>
+        <v>4703522189.807281</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1747451139329467</v>
+        <v>0.1570782143128874</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02456162165583265</v>
+        <v>0.02672085414444492</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>160</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2231060639.124761</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3780961281.187019</v>
+        <v>2916522846.561097</v>
       </c>
       <c r="F98" t="n">
-        <v>0.126027678425413</v>
+        <v>0.1232718410611206</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02761209747239327</v>
+        <v>0.02459702266344252</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1890480678.301529</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2301613863.254274</v>
+        <v>2547213566.466557</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1102703079766168</v>
+        <v>0.1074187519936705</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02281096014522999</v>
+        <v>0.02159867372775886</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>156</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1150806867.010002</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3621427093.200262</v>
+        <v>3901021091.035978</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1332361032775452</v>
+        <v>0.170587478128901</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02451944513998694</v>
+        <v>0.01858083414524459</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>153</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1810713587.083996</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3204355170.015936</v>
+        <v>2929316951.385348</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2143191859988804</v>
+        <v>0.1594618806362602</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04011715000135659</v>
+        <v>0.03802562590044772</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>201</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1602177701.137505</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_499.xlsx
+++ b/output/fit_clients/fit_round_499.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2204938134.760051</v>
+        <v>1605182052.136616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09511237505561812</v>
+        <v>0.08682744456982699</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03089263354258386</v>
+        <v>0.02838942401376386</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1773170103.545715</v>
+        <v>2130534719.972284</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1592630984546692</v>
+        <v>0.1407287106126891</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03848879862349831</v>
+        <v>0.03057506628941212</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3613773880.661654</v>
+        <v>3840947617.896667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1430666335390542</v>
+        <v>0.1195247296495845</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03480180705382176</v>
+        <v>0.03739215583383204</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3041294346.033156</v>
+        <v>2950901633.802987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09497968274719089</v>
+        <v>0.09483182209070323</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03851376255101676</v>
+        <v>0.04946237794351128</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1959443681.727127</v>
+        <v>2241912349.749034</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1079020884512056</v>
+        <v>0.1363489274480906</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04641722783767956</v>
+        <v>0.05425172421743837</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2135413012.629606</v>
+        <v>2914141581.869461</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1004353021040698</v>
+        <v>0.07463421242171835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03369806703478144</v>
+        <v>0.04130034870745183</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2626412233.886818</v>
+        <v>3543397529.109059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1386937504946263</v>
+        <v>0.1695563226624227</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02821047486114571</v>
+        <v>0.02399705082586332</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1675030865.791624</v>
+        <v>1414683306.802669</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1692439192008824</v>
+        <v>0.1987086109552016</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02543405759169345</v>
+        <v>0.02519551084469859</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4320832936.329385</v>
+        <v>4865770596.713436</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1366303804284495</v>
+        <v>0.1999808075802242</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04164778766994449</v>
+        <v>0.03629304346048435</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2800962503.760082</v>
+        <v>4101508378.291699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1567433202686698</v>
+        <v>0.1163186348480518</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04804991587944888</v>
+        <v>0.03460207828137474</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2338683845.379757</v>
+        <v>3103568665.879611</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1218531669637523</v>
+        <v>0.1469744434631435</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04088248613814966</v>
+        <v>0.04497397215552304</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5213208608.070333</v>
+        <v>4482045113.185274</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08832417679536309</v>
+        <v>0.08095909972321455</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02659185977791101</v>
+        <v>0.02888462487927069</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3441372081.80333</v>
+        <v>2471830147.354133</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1368154289282813</v>
+        <v>0.1153162955951381</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0442417875169908</v>
+        <v>0.03176894495814584</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1412766360.93785</v>
+        <v>1790409073.266035</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1048916789517477</v>
+        <v>0.08145113928145008</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03260718032036928</v>
+        <v>0.03515738004693994</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1823220171.737565</v>
+        <v>2354717186.956108</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08696250040680147</v>
+        <v>0.1030892631839991</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03952085284073281</v>
+        <v>0.03328921369155796</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4289017728.787787</v>
+        <v>4358449403.066188</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1108350845547924</v>
+        <v>0.1644629291689157</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04722482543218843</v>
+        <v>0.05214323568233888</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3398645268.695639</v>
+        <v>2546732735.432555</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1613208225615402</v>
+        <v>0.1693103893564085</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02720103001105932</v>
+        <v>0.02415369051738795</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>984648068.3427738</v>
+        <v>1249341760.581934</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1794546698768514</v>
+        <v>0.124220677245421</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02440349892998097</v>
+        <v>0.01952570600325464</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1697801424.887019</v>
+        <v>2806265369.839924</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1590243872377544</v>
+        <v>0.1203153470851523</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02091607871816326</v>
+        <v>0.02976027362558169</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2407200070.756669</v>
+        <v>2386768305.551636</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09256126696342963</v>
+        <v>0.06399000702462199</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03561169626307526</v>
+        <v>0.03293028961565898</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2561952431.021958</v>
+        <v>3897815054.832136</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09182665060581922</v>
+        <v>0.09297810857856703</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04530058703928062</v>
+        <v>0.05403646005070805</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1487985151.386394</v>
+        <v>1466220915.622126</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1212738632837616</v>
+        <v>0.1787010051963996</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0469894975759269</v>
+        <v>0.0402101028327064</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3898589667.458472</v>
+        <v>2516384458.226037</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1105422412407607</v>
+        <v>0.1335122933371801</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02836399212107544</v>
+        <v>0.03710757261283516</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1201858667.612519</v>
+        <v>1382705643.606323</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1074764324813822</v>
+        <v>0.1058161631602171</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02378459746212874</v>
+        <v>0.02299242772823074</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1106866584.652714</v>
+        <v>1086410749.38189</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09513612065414923</v>
+        <v>0.07540706958136364</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02607599904190656</v>
+        <v>0.03122963590895912</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4095684028.577108</v>
+        <v>3582090827.857691</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1380805522989648</v>
+        <v>0.1101580057676407</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02016888095328292</v>
+        <v>0.02249914561671076</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3808128954.657251</v>
+        <v>3832398310.963119</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1014552333674474</v>
+        <v>0.1344923530254626</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03375491620307599</v>
+        <v>0.03805282068609292</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3588394340.217472</v>
+        <v>4934794211.59345</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1364368183333156</v>
+        <v>0.09269355306889937</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03016196222993522</v>
+        <v>0.02924361476697985</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2379718517.84469</v>
+        <v>2178778968.524896</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1104769822661511</v>
+        <v>0.1129782551483883</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0307257404747619</v>
+        <v>0.03609345901231957</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1324521124.05672</v>
+        <v>987757234.5104674</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07539265567247323</v>
+        <v>0.08805554677963895</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05238849584031319</v>
+        <v>0.04071925597340584</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1747352183.815135</v>
+        <v>1189768094.550665</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07998823361958007</v>
+        <v>0.0949021225965252</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0310722119997323</v>
+        <v>0.03135094992997414</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3079889119.172915</v>
+        <v>2011863685.541967</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2011527366631385</v>
+        <v>0.1662087719637876</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05922400065282581</v>
+        <v>0.06033206673449781</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1555849851.958184</v>
+        <v>1213838438.962742</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0748096700408791</v>
+        <v>0.09933481826775281</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02656758347794106</v>
+        <v>0.01938961094228098</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>954257912.7922953</v>
+        <v>1184708532.168373</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07124914145888531</v>
+        <v>0.1002623122484001</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0332451454623103</v>
+        <v>0.03627147401278352</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2978884841.950587</v>
+        <v>2703825943.242489</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1740289459396994</v>
+        <v>0.145005216149622</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02728311190340983</v>
+        <v>0.02476354640363049</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2790038593.866125</v>
+        <v>2345297878.991828</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07040018376410663</v>
+        <v>0.08331581818680737</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03533801068709258</v>
+        <v>0.04222692834644621</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1477069246.763742</v>
+        <v>2113295418.387329</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07645304947836208</v>
+        <v>0.0776446285764525</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02606412376269309</v>
+        <v>0.03971373248196806</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2099372206.335522</v>
+        <v>1353439291.679361</v>
       </c>
       <c r="F39" t="n">
-        <v>0.157599782608271</v>
+        <v>0.1324824958760231</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02334464156325134</v>
+        <v>0.03215572802627979</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1675515975.738071</v>
+        <v>1115154126.770005</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1080195741746489</v>
+        <v>0.1213898382980395</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05233118381507125</v>
+        <v>0.05280198505237334</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2360295461.285022</v>
+        <v>2018228986.895148</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1596326651035416</v>
+        <v>0.1462304208359075</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0355047969979419</v>
+        <v>0.03557965130789124</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3349831115.598078</v>
+        <v>3574545386.295564</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09461696978345976</v>
+        <v>0.08989584144099415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03563058863782448</v>
+        <v>0.04127672077694577</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2070503159.85121</v>
+        <v>2108704953.002989</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1631255759215366</v>
+        <v>0.178174804135205</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02421509267003443</v>
+        <v>0.0158240377588696</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2192117168.361801</v>
+        <v>2163766064.399122</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07757614162458949</v>
+        <v>0.09524234009343198</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0303135310286354</v>
+        <v>0.03364020343314365</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1985910149.504269</v>
+        <v>2533097140.656047</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1846333934099226</v>
+        <v>0.1225757716361344</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03550277396284988</v>
+        <v>0.04813259907187382</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4023269649.81947</v>
+        <v>5202093340.493269</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1718982823496543</v>
+        <v>0.1188882999270852</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05203326910110465</v>
+        <v>0.04955495082320974</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4945141158.268337</v>
+        <v>3603258561.617847</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1738168064496402</v>
+        <v>0.1663012631673646</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05294582317465089</v>
+        <v>0.05658052513702112</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4559019101.92725</v>
+        <v>4694964580.656936</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08119476835986501</v>
+        <v>0.07715623636021594</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03056226459252501</v>
+        <v>0.03717579359718134</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1272381032.191032</v>
+        <v>1480989550.540719</v>
       </c>
       <c r="F49" t="n">
-        <v>0.163635400659666</v>
+        <v>0.1572481189002576</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04256985031975821</v>
+        <v>0.03525213501395311</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3687527100.588357</v>
+        <v>2815817290.629262</v>
       </c>
       <c r="F50" t="n">
-        <v>0.135642088025399</v>
+        <v>0.1353395556815576</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04508743954405586</v>
+        <v>0.04707061302955871</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1413921648.86678</v>
+        <v>963245545.8104726</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1378857056199744</v>
+        <v>0.161673441517157</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05128565538799513</v>
+        <v>0.03872337359168374</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4588321074.216998</v>
+        <v>4617278630.747491</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09552138135183905</v>
+        <v>0.1045312051466244</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05667873135790897</v>
+        <v>0.0482450198528303</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3558657880.518332</v>
+        <v>2426245895.245531</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1507214119189708</v>
+        <v>0.1725722550671621</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02466306912336492</v>
+        <v>0.03427042066271135</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4021963805.969461</v>
+        <v>4968616738.555671</v>
       </c>
       <c r="F54" t="n">
-        <v>0.121341369697374</v>
+        <v>0.1535228944800648</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03824871559159784</v>
+        <v>0.04908615698477888</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3844531418.49016</v>
+        <v>3595956649.002877</v>
       </c>
       <c r="F55" t="n">
-        <v>0.148886043828673</v>
+        <v>0.1876235401630307</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03056442267562628</v>
+        <v>0.02098829745651425</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1253180134.006598</v>
+        <v>1742997681.478548</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1236970467554831</v>
+        <v>0.1203317214215848</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03728899414112367</v>
+        <v>0.05143967985191525</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3264554839.652818</v>
+        <v>3268192248.929433</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1406513999258102</v>
+        <v>0.1570418267119984</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02000762691583835</v>
+        <v>0.02600465679240351</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1844445231.834192</v>
+        <v>1452205055.074652</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1967756220968279</v>
+        <v>0.1295506389685774</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02822861004467258</v>
+        <v>0.03558161126903583</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4085638403.464764</v>
+        <v>4293572051.503426</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1262238296601144</v>
+        <v>0.09276804307632813</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04301867286809195</v>
+        <v>0.03374182834667068</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3424887080.2</v>
+        <v>3594383408.189282</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1553348143440536</v>
+        <v>0.1838098461385418</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02629850127484851</v>
+        <v>0.02557487054568792</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2254379997.925006</v>
+        <v>2521908408.117973</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1351470272080017</v>
+        <v>0.1427880272870933</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02383222454207178</v>
+        <v>0.02637821226007479</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1450263585.468286</v>
+        <v>1345393611.140278</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1713592369804156</v>
+        <v>0.1786611623692282</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03489488311897573</v>
+        <v>0.03208408322992121</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3993982327.734924</v>
+        <v>5411292381.52592</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06973940630398801</v>
+        <v>0.08924303291533223</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03246191206874626</v>
+        <v>0.04314974518788301</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3840032364.040711</v>
+        <v>4815983227.235634</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1593571170747025</v>
+        <v>0.1758811336417412</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02813632161326379</v>
+        <v>0.03148267346104173</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6024272823.12295</v>
+        <v>5846873458.123973</v>
       </c>
       <c r="F65" t="n">
-        <v>0.157716044269612</v>
+        <v>0.1071564185030891</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02970574974222263</v>
+        <v>0.02467579661658634</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4341688497.278156</v>
+        <v>3640029505.294372</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1520204033010905</v>
+        <v>0.1622046383192341</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03303268160999277</v>
+        <v>0.03943399464785569</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3270624854.12549</v>
+        <v>2341049592.382556</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1001936175475483</v>
+        <v>0.09842880720318915</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04356809487697797</v>
+        <v>0.0318199046628379</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4240418096.900546</v>
+        <v>5338002430.029295</v>
       </c>
       <c r="F68" t="n">
-        <v>0.144224646294612</v>
+        <v>0.1598877543379911</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03227135680411714</v>
+        <v>0.04832878317249098</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1791671692.104854</v>
+        <v>2434851879.57936</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1532540001560811</v>
+        <v>0.1349114726788103</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04463933578818562</v>
+        <v>0.05300183044973596</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3230618044.763553</v>
+        <v>2992998400.470401</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09781293423074953</v>
+        <v>0.07679836587016096</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04313008756019441</v>
+        <v>0.04487301204177057</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4452462346.696949</v>
+        <v>4013354471.30495</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1660108153786543</v>
+        <v>0.1130745428083384</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02480093002920997</v>
+        <v>0.03018653098007974</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1545928527.923518</v>
+        <v>2181390453.684445</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1082420424169762</v>
+        <v>0.07078370505591677</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0382759507808698</v>
+        <v>0.04499376962737237</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3503699770.660558</v>
+        <v>2894108942.89157</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09108625070461969</v>
+        <v>0.08313123733749929</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04483636767076157</v>
+        <v>0.05267068763521079</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3821204632.948639</v>
+        <v>3382326695.881103</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1726662541151718</v>
+        <v>0.1827177995067863</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02979197204069291</v>
+        <v>0.02383128180931963</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2300638704.315351</v>
+        <v>1522571965.058362</v>
       </c>
       <c r="F75" t="n">
-        <v>0.102709199401632</v>
+        <v>0.1335817996146114</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03798288349739756</v>
+        <v>0.02647255463295139</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3704023578.481193</v>
+        <v>3316359742.633335</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08208881198599834</v>
+        <v>0.1064441751728059</v>
       </c>
       <c r="G76" t="n">
-        <v>0.034072117394288</v>
+        <v>0.03200478362821667</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1701401570.094635</v>
+        <v>1596260314.600899</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1387789485050226</v>
+        <v>0.1500257233435757</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02735991941612126</v>
+        <v>0.02232681878533351</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4516315617.391196</v>
+        <v>3966988947.267563</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1021900549801733</v>
+        <v>0.1340989677768532</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04672575331326222</v>
+        <v>0.03829400350372592</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1318791529.55227</v>
+        <v>1203229134.92257</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1458443109681646</v>
+        <v>0.1319789588778453</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02643204705678379</v>
+        <v>0.03658720730901591</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4135277106.968727</v>
+        <v>4544417272.899294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09277891932526722</v>
+        <v>0.1113044500969453</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03317011037525727</v>
+        <v>0.03700194641677251</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4222863086.128411</v>
+        <v>3284678960.32071</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08495683900384926</v>
+        <v>0.1034049650504781</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03127171236187975</v>
+        <v>0.02626263803853016</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4266803525.058946</v>
+        <v>5174676688.822383</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1688672877417768</v>
+        <v>0.1933832024681843</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02477644819964189</v>
+        <v>0.02397425612479059</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2158732624.729135</v>
+        <v>2202378819.819419</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1018558624357439</v>
+        <v>0.1506570183949477</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03991447912136593</v>
+        <v>0.03923266149811674</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2589158464.323153</v>
+        <v>1578390083.673015</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1190462443483169</v>
+        <v>0.1102623404358794</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04471697657414753</v>
+        <v>0.03833215855339562</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2355412185.763296</v>
+        <v>2561154813.16326</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1841592641153971</v>
+        <v>0.1550096939870868</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03684932011418472</v>
+        <v>0.0418628821484594</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2379128568.151756</v>
+        <v>1732016835.282115</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1247291311480789</v>
+        <v>0.1713833325914795</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02656054485750076</v>
+        <v>0.02407134493758384</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1053824405.365861</v>
+        <v>1023514332.250348</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1612232629808817</v>
+        <v>0.1694273400321833</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04443054569917202</v>
+        <v>0.03289875179165425</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2442421444.50792</v>
+        <v>3733114782.237418</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1200575539582205</v>
+        <v>0.1695813406427781</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04004785109017378</v>
+        <v>0.039002247962336</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2484498611.090002</v>
+        <v>3050714790.042507</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1147945517263852</v>
+        <v>0.1557838709304094</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03454491304439573</v>
+        <v>0.03439236994507689</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1507912098.845959</v>
+        <v>1341156465.481522</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09915485361665996</v>
+        <v>0.1308044090115794</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05340900154133799</v>
+        <v>0.04031227750866456</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1446691217.749896</v>
+        <v>2018009461.452459</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1606393650382993</v>
+        <v>0.169740047060467</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03864021516449496</v>
+        <v>0.05554465220168038</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2479584373.8391</v>
+        <v>2239466466.716169</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1078977914114559</v>
+        <v>0.1048892695587465</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03726073451240504</v>
+        <v>0.03253822523409573</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3952466455.659791</v>
+        <v>4056205784.015056</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1032109961662936</v>
+        <v>0.1269915234895131</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04210605857822647</v>
+        <v>0.03456432868305639</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1986888912.08775</v>
+        <v>1895161044.132663</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1621987023918813</v>
+        <v>0.1472995687015462</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0421479607969335</v>
+        <v>0.03880900759725409</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2869156421.39173</v>
+        <v>2115664576.206007</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1034797624198757</v>
+        <v>0.1200715537435489</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03203334134741792</v>
+        <v>0.04342911644392062</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2118859519.942348</v>
+        <v>2091195787.049378</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1097906002071207</v>
+        <v>0.1391667005375852</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03661461076049172</v>
+        <v>0.04284169560394776</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4703522189.807281</v>
+        <v>3337868897.302971</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1570782143128874</v>
+        <v>0.1516198864803617</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02672085414444492</v>
+        <v>0.02638042702514643</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2916522846.561097</v>
+        <v>2629896350.198465</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1232718410611206</v>
+        <v>0.1174544895294059</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02459702266344252</v>
+        <v>0.02636752657695306</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2547213566.466557</v>
+        <v>3264382635.159728</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1074187519936705</v>
+        <v>0.1208729767096024</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02159867372775886</v>
+        <v>0.02165837198989071</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3901021091.035978</v>
+        <v>3138452295.598456</v>
       </c>
       <c r="F100" t="n">
-        <v>0.170587478128901</v>
+        <v>0.1197638691882535</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01858083414524459</v>
+        <v>0.02284835160504055</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2929316951.385348</v>
+        <v>2267967681.913922</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1594618806362602</v>
+        <v>0.1933279858168143</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03802562590044772</v>
+        <v>0.05635611199720114</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_499.xlsx
+++ b/output/fit_clients/fit_round_499.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1605182052.136616</v>
+        <v>1571089910.384557</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08682744456982699</v>
+        <v>0.08964513484591784</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02838942401376386</v>
+        <v>0.02790686702663271</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2130534719.972284</v>
+        <v>2047013147.540917</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1407287106126891</v>
+        <v>0.15888070948584</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03057506628941212</v>
+        <v>0.04860959109277083</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3840947617.896667</v>
+        <v>3702974813.682126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1195247296495845</v>
+        <v>0.150239108018025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03739215583383204</v>
+        <v>0.03790265341819485</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>499</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2950901633.802987</v>
+        <v>2640606530.281655</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09483182209070323</v>
+        <v>0.07269274922155149</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04946237794351128</v>
+        <v>0.04478716326390438</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>211</v>
+      </c>
+      <c r="J5" t="n">
+        <v>498</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.68644321654583</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2241912349.749034</v>
+        <v>2033207659.064791</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1363489274480906</v>
+        <v>0.1335463590726145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05425172421743837</v>
+        <v>0.05114132329451854</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2914141581.869461</v>
+        <v>3053077035.892229</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07463421242171835</v>
+        <v>0.06905430252243304</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04130034870745183</v>
+        <v>0.03370663923135567</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3543397529.109059</v>
+        <v>3039095413.537872</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1695563226624227</v>
+        <v>0.1609575855168995</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02399705082586332</v>
+        <v>0.02829116805772801</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>143</v>
+      </c>
+      <c r="J8" t="n">
+        <v>497</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1414683306.802669</v>
+        <v>1460453193.833146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1987086109552016</v>
+        <v>0.1595487853826485</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02519551084469859</v>
+        <v>0.03726627620416949</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4865770596.713436</v>
+        <v>3881884006.948577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1999808075802242</v>
+        <v>0.1849163492052151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03629304346048435</v>
+        <v>0.03553410501872144</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>375</v>
+      </c>
+      <c r="J10" t="n">
+        <v>499</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4101508378.291699</v>
+        <v>3507669825.0837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1163186348480518</v>
+        <v>0.1389384256446831</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03460207828137474</v>
+        <v>0.03430300668449987</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>207</v>
+      </c>
+      <c r="J11" t="n">
+        <v>499</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3103568665.879611</v>
+        <v>2120830432.351148</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1469744434631435</v>
+        <v>0.1945961156305175</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04497397215552304</v>
+        <v>0.04186591580119762</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +888,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4482045113.185274</v>
+        <v>3697891904.317205</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08095909972321455</v>
+        <v>0.06480902909392713</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02888462487927069</v>
+        <v>0.01984535583844077</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>257</v>
+      </c>
+      <c r="J13" t="n">
+        <v>499</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +917,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2471830147.354133</v>
+        <v>2620079818.674665</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1153162955951381</v>
+        <v>0.1148779870155075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03176894495814584</v>
+        <v>0.04386219728764678</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>118</v>
+      </c>
+      <c r="J14" t="n">
+        <v>498</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.56660279990032</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1790409073.266035</v>
+        <v>1160683750.868076</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08145113928145008</v>
+        <v>0.108246927084982</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03515738004693994</v>
+        <v>0.04108091145948826</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2354717186.956108</v>
+        <v>2182466770.658438</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1030892631839991</v>
+        <v>0.07334426150800813</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03328921369155796</v>
+        <v>0.03155907587845091</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4358449403.066188</v>
+        <v>5147294787.107679</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1644629291689157</v>
+        <v>0.1490041876426491</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05214323568233888</v>
+        <v>0.05145517791319939</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>243</v>
+      </c>
+      <c r="J17" t="n">
+        <v>499</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27.59848889235812</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2546732735.432555</v>
+        <v>3521234718.154269</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1693103893564085</v>
+        <v>0.1412829141094886</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02415369051738795</v>
+        <v>0.0237694550320819</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>134</v>
+      </c>
+      <c r="J18" t="n">
+        <v>499</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1249341760.581934</v>
+        <v>1035386122.353235</v>
       </c>
       <c r="F19" t="n">
-        <v>0.124220677245421</v>
+        <v>0.145616806293946</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01952570600325464</v>
+        <v>0.02501995790055414</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2806265369.839924</v>
+        <v>2102888653.846289</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1203153470851523</v>
+        <v>0.1536503596028699</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02976027362558169</v>
+        <v>0.02981093662595673</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2386768305.551636</v>
+        <v>2013387891.481456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06399000702462199</v>
+        <v>0.06877905801869852</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03293028961565898</v>
+        <v>0.03356747071610981</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3897815054.832136</v>
+        <v>2566440750.126722</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09297810857856703</v>
+        <v>0.1362473468113998</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05403646005070805</v>
+        <v>0.05127822489633042</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>147</v>
+      </c>
+      <c r="J22" t="n">
+        <v>498</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18.01453045282264</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1466220915.622126</v>
+        <v>998272170.5857428</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1787010051963996</v>
+        <v>0.1465770192144215</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0402101028327064</v>
+        <v>0.05003949872647959</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2516384458.226037</v>
+        <v>3995898299.863835</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1335122933371801</v>
+        <v>0.1157375747662396</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03710757261283516</v>
+        <v>0.02912489794991238</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>157</v>
+      </c>
+      <c r="J24" t="n">
+        <v>499</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1382705643.606323</v>
+        <v>1241115356.834746</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1058161631602171</v>
+        <v>0.1144399009096285</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02299242772823074</v>
+        <v>0.02187892782673338</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1086410749.38189</v>
+        <v>1387713423.934139</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07540706958136364</v>
+        <v>0.09922061454558441</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03122963590895912</v>
+        <v>0.03585837194468162</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3582090827.857691</v>
+        <v>4644634233.96346</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1101580057676407</v>
+        <v>0.100469466019453</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02249914561671076</v>
+        <v>0.01718912396156082</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>223</v>
+      </c>
+      <c r="J27" t="n">
+        <v>499</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3832398310.963119</v>
+        <v>2562404214.761142</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1344923530254626</v>
+        <v>0.121182501076928</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03805282068609292</v>
+        <v>0.04246775504662115</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1454,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4934794211.59345</v>
+        <v>3718773976.77605</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09269355306889937</v>
+        <v>0.133463024144144</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02924361476697985</v>
+        <v>0.04290316012782367</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>390</v>
+      </c>
+      <c r="J29" t="n">
+        <v>499</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2178778968.524896</v>
+        <v>1486852987.793267</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1129782551483883</v>
+        <v>0.1002791862976765</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03609345901231957</v>
+        <v>0.03489173666820135</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>987757234.5104674</v>
+        <v>1080714514.691469</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08805554677963895</v>
+        <v>0.08785640677003145</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04071925597340584</v>
+        <v>0.04477931699569945</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1189768094.550665</v>
+        <v>1418786130.87407</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0949021225965252</v>
+        <v>0.07792760387169589</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03135094992997414</v>
+        <v>0.03846482913163891</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2011863685.541967</v>
+        <v>2829903469.514101</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1662087719637876</v>
+        <v>0.2071657670868526</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06033206673449781</v>
+        <v>0.03885354143392951</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1213838438.962742</v>
+        <v>1232469930.099785</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09933481826775281</v>
+        <v>0.09405726435979531</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01938961094228098</v>
+        <v>0.01887389288152629</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1184708532.168373</v>
+        <v>1315799688.511477</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1002623122484001</v>
+        <v>0.1166756374805935</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03627147401278352</v>
+        <v>0.02721661203769419</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2703825943.242489</v>
+        <v>2967436736.325981</v>
       </c>
       <c r="F36" t="n">
-        <v>0.145005216149622</v>
+        <v>0.1639839269884524</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02476354640363049</v>
+        <v>0.02231287782581124</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2345297878.991828</v>
+        <v>1958788987.622109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08331581818680737</v>
+        <v>0.06778140416770403</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04222692834644621</v>
+        <v>0.04214539258885486</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2113295418.387329</v>
+        <v>1325934659.196793</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0776446285764525</v>
+        <v>0.1109972055550905</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03971373248196806</v>
+        <v>0.02990802964916797</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1353439291.679361</v>
+        <v>1564075962.166921</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1324824958760231</v>
+        <v>0.1764398939970875</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03215572802627979</v>
+        <v>0.02765618472830643</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1115154126.770005</v>
+        <v>1108862041.375916</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1213898382980395</v>
+        <v>0.1531433680921963</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05280198505237334</v>
+        <v>0.04091425395886996</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2018228986.895148</v>
+        <v>2680270360.924514</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1462304208359075</v>
+        <v>0.1591652076352574</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03557965130789124</v>
+        <v>0.04603762461082045</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1909,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3574545386.295564</v>
+        <v>4071768091.765163</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08989584144099415</v>
+        <v>0.1177812283220278</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04127672077694577</v>
+        <v>0.04052948896669989</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>212</v>
+      </c>
+      <c r="J42" t="n">
+        <v>499</v>
+      </c>
+      <c r="K42" t="n">
+        <v>39.93268622767566</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2108704953.002989</v>
+        <v>2514082055.621036</v>
       </c>
       <c r="F43" t="n">
-        <v>0.178174804135205</v>
+        <v>0.1431750977673843</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158240377588696</v>
+        <v>0.01573928125294507</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2163766064.399122</v>
+        <v>1904578802.861096</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09524234009343198</v>
+        <v>0.09294463885364715</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03364020343314365</v>
+        <v>0.03169409834088543</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2533097140.656047</v>
+        <v>2243603616.751712</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1225757716361344</v>
+        <v>0.1559071051164337</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04813259907187382</v>
+        <v>0.04379173812004689</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5202093340.493269</v>
+        <v>4080510277.413196</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1188882999270852</v>
+        <v>0.1698442858838145</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04955495082320974</v>
+        <v>0.04689928494200999</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>293</v>
+      </c>
+      <c r="J46" t="n">
+        <v>498</v>
+      </c>
+      <c r="K46" t="n">
+        <v>26.10075149677081</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3603258561.617847</v>
+        <v>3421880735.950361</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1663012631673646</v>
+        <v>0.187189303391268</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05658052513702112</v>
+        <v>0.05232695609346048</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>227</v>
+      </c>
+      <c r="J47" t="n">
+        <v>498</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.20372201832284</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4694964580.656936</v>
+        <v>4313454165.431917</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07715623636021594</v>
+        <v>0.1057070046419371</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03717579359718134</v>
+        <v>0.02393847381198281</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>250</v>
+      </c>
+      <c r="J48" t="n">
+        <v>499</v>
+      </c>
+      <c r="K48" t="n">
+        <v>27.46007847151953</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1480989550.540719</v>
+        <v>1364123053.438824</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1572481189002576</v>
+        <v>0.1343363910996498</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03525213501395311</v>
+        <v>0.03271680781556776</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2815817290.629262</v>
+        <v>3272980718.331417</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1353395556815576</v>
+        <v>0.1248619851149074</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04707061302955871</v>
+        <v>0.04997940218400383</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>179</v>
+      </c>
+      <c r="J50" t="n">
+        <v>494</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>963245545.8104726</v>
+        <v>1096758156.366808</v>
       </c>
       <c r="F51" t="n">
-        <v>0.161673441517157</v>
+        <v>0.1526203121491796</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03872337359168374</v>
+        <v>0.04521629638856555</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4617278630.747491</v>
+        <v>3574713880.101812</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1045312051466244</v>
+        <v>0.1128690311137517</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0482450198528303</v>
+        <v>0.04752256709965336</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>277</v>
+      </c>
+      <c r="J52" t="n">
+        <v>499</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2426245895.245531</v>
+        <v>3102423550.533887</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1725722550671621</v>
+        <v>0.2008397643650794</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03427042066271135</v>
+        <v>0.02161777304744401</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>80</v>
+      </c>
+      <c r="J53" t="n">
+        <v>496</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4968616738.555671</v>
+        <v>3310990383.958536</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1535228944800648</v>
+        <v>0.1451478469914278</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04908615698477888</v>
+        <v>0.03993047098456871</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>262</v>
+      </c>
+      <c r="J54" t="n">
+        <v>497</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2372,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3595956649.002877</v>
+        <v>4608277378.627015</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1876235401630307</v>
+        <v>0.1667587796199454</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02098829745651425</v>
+        <v>0.02555925215382862</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>246</v>
+      </c>
+      <c r="J55" t="n">
+        <v>499</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1742997681.478548</v>
+        <v>1359811987.195753</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1203317214215848</v>
+        <v>0.1388106984673867</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05143967985191525</v>
+        <v>0.03948523314608659</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3268192248.929433</v>
+        <v>3260808505.171745</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570418267119984</v>
+        <v>0.1508621158309771</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02600465679240351</v>
+        <v>0.01978555851196545</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>213</v>
+      </c>
+      <c r="J57" t="n">
+        <v>497</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1452205055.074652</v>
+        <v>1742906065.449472</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1295506389685774</v>
+        <v>0.2027419279121237</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03558161126903583</v>
+        <v>0.03491684761967426</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2506,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4293572051.503426</v>
+        <v>4882974144.397939</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09276804307632813</v>
+        <v>0.08156314666177253</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03374182834667068</v>
+        <v>0.04927589061085787</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>245</v>
+      </c>
+      <c r="J59" t="n">
+        <v>499</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3594383408.189282</v>
+        <v>2380073184.082605</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1838098461385418</v>
+        <v>0.1864884805000055</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02557487054568792</v>
+        <v>0.03099424284505356</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2521908408.117973</v>
+        <v>2323358137.551373</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1427880272870933</v>
+        <v>0.1739436214856221</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02637821226007479</v>
+        <v>0.02821007654325084</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1345393611.140278</v>
+        <v>1849208996.827618</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1786611623692282</v>
+        <v>0.1508949921207085</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03208408322992121</v>
+        <v>0.04600269353039519</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5411292381.52592</v>
+        <v>4055356268.656495</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08924303291533223</v>
+        <v>0.06810496914047294</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04314974518788301</v>
+        <v>0.04372272731634447</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>249</v>
+      </c>
+      <c r="J63" t="n">
+        <v>498</v>
+      </c>
+      <c r="K63" t="n">
+        <v>25.13937412511562</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4815983227.235634</v>
+        <v>5294144180.759988</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1758811336417412</v>
+        <v>0.1316955205646892</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03148267346104173</v>
+        <v>0.03510387032310817</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>249</v>
+      </c>
+      <c r="J64" t="n">
+        <v>498</v>
+      </c>
+      <c r="K64" t="n">
+        <v>23.57925541490124</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2720,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5846873458.123973</v>
+        <v>3847695796.103682</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1071564185030891</v>
+        <v>0.1051407822266141</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02467579661658634</v>
+        <v>0.02314860323767075</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>347</v>
+      </c>
+      <c r="J65" t="n">
+        <v>499</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3640029505.294372</v>
+        <v>3766840108.031283</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1622046383192341</v>
+        <v>0.1230480452206213</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03943399464785569</v>
+        <v>0.05020513027841232</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>247</v>
+      </c>
+      <c r="J66" t="n">
+        <v>498</v>
+      </c>
+      <c r="K66" t="n">
+        <v>25.36610368996859</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2341049592.382556</v>
+        <v>3122169450.486776</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09842880720318915</v>
+        <v>0.06746203256390686</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0318199046628379</v>
+        <v>0.03513639562132508</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>18</v>
+      </c>
+      <c r="J67" t="n">
+        <v>496</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5338002430.029295</v>
+        <v>3832749714.763908</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1598877543379911</v>
+        <v>0.1005954809764951</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04832878317249098</v>
+        <v>0.03598136194364009</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>270</v>
+      </c>
+      <c r="J68" t="n">
+        <v>499</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2868,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2434851879.57936</v>
+        <v>2047457565.2675</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1349114726788103</v>
+        <v>0.1520543659104922</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05300183044973596</v>
+        <v>0.03649558696237618</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2992998400.470401</v>
+        <v>3682320721.521675</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07679836587016096</v>
+        <v>0.06298377910907381</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04487301204177057</v>
+        <v>0.03898588394915233</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>77</v>
+      </c>
+      <c r="J70" t="n">
+        <v>499</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4013354471.30495</v>
+        <v>3863696036.757938</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1130745428083384</v>
+        <v>0.1266417236183288</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03018653098007974</v>
+        <v>0.03229573605414948</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>334</v>
+      </c>
+      <c r="J71" t="n">
+        <v>498</v>
+      </c>
+      <c r="K71" t="n">
+        <v>25.64473987086312</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2181390453.684445</v>
+        <v>2069319308.228297</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07078370505591677</v>
+        <v>0.07637291779282329</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04499376962737237</v>
+        <v>0.04327657817621056</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2894108942.89157</v>
+        <v>3407821801.076317</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08313123733749929</v>
+        <v>0.09941193386987479</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05267068763521079</v>
+        <v>0.04979668232495411</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3382326695.881103</v>
+        <v>2833433847.563376</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1827177995067863</v>
+        <v>0.1293353447718575</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02383128180931963</v>
+        <v>0.02762230907269633</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>147</v>
+      </c>
+      <c r="J74" t="n">
+        <v>498</v>
+      </c>
+      <c r="K74" t="n">
+        <v>22.82026398157208</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1522571965.058362</v>
+        <v>2317435448.673613</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1335817996146114</v>
+        <v>0.1037870383958276</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02647255463295139</v>
+        <v>0.03111411791382514</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3316359742.633335</v>
+        <v>3696245502.628528</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1064441751728059</v>
+        <v>0.1205275241833777</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03200478362821667</v>
+        <v>0.02348429424034146</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>239</v>
+      </c>
+      <c r="J76" t="n">
+        <v>499</v>
+      </c>
+      <c r="K76" t="n">
+        <v>27.25917213776425</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1596260314.600899</v>
+        <v>1804924864.21897</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1500257233435757</v>
+        <v>0.1162445390087593</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02232681878533351</v>
+        <v>0.03142324229186331</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3966988947.267563</v>
+        <v>3271979617.488761</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1340989677768532</v>
+        <v>0.1030756172576089</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03829400350372592</v>
+        <v>0.04614294265104714</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>247</v>
+      </c>
+      <c r="J78" t="n">
+        <v>497</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1203229134.92257</v>
+        <v>1301456458.200586</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1319789588778453</v>
+        <v>0.1536658056982291</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03658720730901591</v>
+        <v>0.03064483443355589</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4544417272.899294</v>
+        <v>3587559462.598105</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1113044500969453</v>
+        <v>0.1106469404812833</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03700194641677251</v>
+        <v>0.03815984770839548</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>244</v>
+      </c>
+      <c r="J80" t="n">
+        <v>498</v>
+      </c>
+      <c r="K80" t="n">
+        <v>22.23555719253479</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3284678960.32071</v>
+        <v>3538402939.567545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1034049650504781</v>
+        <v>0.1261039701813417</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02626263803853016</v>
+        <v>0.0220542287634363</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>234</v>
+      </c>
+      <c r="J81" t="n">
+        <v>498</v>
+      </c>
+      <c r="K81" t="n">
+        <v>22.20246277637346</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5174676688.822383</v>
+        <v>4923684665.235174</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1933832024681843</v>
+        <v>0.1482582294072537</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02397425612479059</v>
+        <v>0.02148493676186009</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>326</v>
+      </c>
+      <c r="J82" t="n">
+        <v>498</v>
+      </c>
+      <c r="K82" t="n">
+        <v>26.53540651899094</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2202378819.819419</v>
+        <v>2135427668.519848</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1506570183949477</v>
+        <v>0.1225210420994093</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03923266149811674</v>
+        <v>0.04357621355263484</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1578390083.673015</v>
+        <v>1996427320.571414</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1102623404358794</v>
+        <v>0.1029965294043394</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03833215855339562</v>
+        <v>0.0342576722042571</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2561154813.16326</v>
+        <v>2299071699.423306</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1550096939870868</v>
+        <v>0.1449393345939994</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0418628821484594</v>
+        <v>0.04708883872858742</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1732016835.282115</v>
+        <v>2601910236.141496</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1713833325914795</v>
+        <v>0.1310913526196817</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02407134493758384</v>
+        <v>0.01700915631315643</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1023514332.250348</v>
+        <v>1496619000.389693</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1694273400321833</v>
+        <v>0.1823240920396491</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03289875179165425</v>
+        <v>0.0414769061101785</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3733114782.237418</v>
+        <v>3258245010.744077</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1695813406427781</v>
+        <v>0.1781657066709636</v>
       </c>
       <c r="G88" t="n">
-        <v>0.039002247962336</v>
+        <v>0.02453554949285491</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>72</v>
+      </c>
+      <c r="J88" t="n">
+        <v>496</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3050714790.042507</v>
+        <v>2373623094.92862</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1557838709304094</v>
+        <v>0.1465758166715956</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03439236994507689</v>
+        <v>0.0393091747154775</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>495</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1341156465.481522</v>
+        <v>1909469477.465683</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1308044090115794</v>
+        <v>0.1132977884488175</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04031227750866456</v>
+        <v>0.03856083876225208</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2018009461.452459</v>
+        <v>1814820758.928999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.169740047060467</v>
+        <v>0.1345905613477611</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05554465220168038</v>
+        <v>0.04690392684922443</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2239466466.716169</v>
+        <v>2040265155.207903</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1048892695587465</v>
+        <v>0.07072878078502762</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03253822523409573</v>
+        <v>0.03703889085954396</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4056205784.015056</v>
+        <v>3808219109.913549</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1269915234895131</v>
+        <v>0.1006595083488658</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03456432868305639</v>
+        <v>0.04330674327629665</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>240</v>
+      </c>
+      <c r="J93" t="n">
+        <v>498</v>
+      </c>
+      <c r="K93" t="n">
+        <v>26.41602727780518</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1895161044.132663</v>
+        <v>2231829329.210363</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1472995687015462</v>
+        <v>0.126927147050048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03880900759725409</v>
+        <v>0.03889031360733219</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2115664576.206007</v>
+        <v>2967121326.508928</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1200715537435489</v>
+        <v>0.1279196798152457</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04342911644392062</v>
+        <v>0.04947973280713092</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2091195787.049378</v>
+        <v>1615518055.311878</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1391667005375852</v>
+        <v>0.1195002215440856</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04284169560394776</v>
+        <v>0.04150624599928891</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3862,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3337868897.302971</v>
+        <v>5136035551.908108</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1516198864803617</v>
+        <v>0.1684631191449707</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02638042702514643</v>
+        <v>0.0188818413099552</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>259</v>
+      </c>
+      <c r="J97" t="n">
+        <v>499</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2629896350.198465</v>
+        <v>2661534825.389767</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1174544895294059</v>
+        <v>0.09967157690183735</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02636752657695306</v>
+        <v>0.02058968618143469</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>130</v>
+      </c>
+      <c r="J98" t="n">
+        <v>498</v>
+      </c>
+      <c r="K98" t="n">
+        <v>20.65486829192393</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3264382635.159728</v>
+        <v>3427577332.163435</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1208729767096024</v>
+        <v>0.1068337745862327</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02165837198989071</v>
+        <v>0.03436618376539828</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3138452295.598456</v>
+        <v>3262895985.187203</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1197638691882535</v>
+        <v>0.1652140102085802</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02284835160504055</v>
+        <v>0.01793016556747207</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>232</v>
+      </c>
+      <c r="J100" t="n">
+        <v>496</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2267967681.913922</v>
+        <v>2397611200.434422</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1933279858168143</v>
+        <v>0.183963825887117</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05635611199720114</v>
+        <v>0.04745417501230063</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>49</v>
+      </c>
+      <c r="J101" t="n">
+        <v>499</v>
+      </c>
+      <c r="K101" t="n">
+        <v>29.22962898551247</v>
       </c>
     </row>
   </sheetData>
